--- a/docs/products.xlsx
+++ b/docs/products.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25516"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16800" tabRatio="500"/>
+    <workbookView xWindow="2060" yWindow="260" windowWidth="25600" windowHeight="16800" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -423,7 +423,7 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultRowHeight="18" x14ac:dyDescent="0"/>
@@ -444,13 +444,13 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
       </c>
       <c r="C2">
-        <v>200</v>
+        <v>99999</v>
       </c>
       <c r="D2" s="1">
         <v>41974</v>
@@ -458,7 +458,7 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B3" t="s">
         <v>5</v>
